--- a/EMS_incident_dispatch_data_description.xlsx
+++ b/EMS_incident_dispatch_data_description.xlsx
@@ -1,28 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandarella/Documents/NYU/DS-GA_1001/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandarella/Documents/NYU/DS-GA_1001/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77DA0261-93E7-EC4D-A7A4-655106DCDA6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61F3B5D-4346-0D42-B63C-8C658A23C286}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="460" windowWidth="23960" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="480" windowWidth="23960" windowHeight="16320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EMS File Description" sheetId="1" r:id="rId1"/>
     <sheet name="Incident Dispositions" sheetId="2" r:id="rId2"/>
     <sheet name="Call Type Descriptions" sheetId="3" r:id="rId3"/>
+    <sheet name="Call Type Descriptions FINAL" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Call Type Descriptions FINAL'!$A$4:$F$125</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="521">
   <si>
     <t>CAD_INCIDENT_ID</t>
   </si>
@@ -136,12 +141,6 @@
   </si>
   <si>
     <t>The borough of the incident location.</t>
-  </si>
-  <si>
-    <t>ATOM</t>
-  </si>
-  <si>
-    <t>The smallest subdivision of the borough where the incident is located.</t>
   </si>
   <si>
     <t>INCIDENT_DISPATCH_AREA</t>
@@ -1552,12 +1551,75 @@
   <si>
     <t>Note: The call type does not reflect the actual condition of the patient.  It is a determination based on information obtained from the caller for the purpose of defining severity and resourse allocation.</t>
   </si>
+  <si>
+    <t>CARDBR</t>
+  </si>
+  <si>
+    <t>MVAINM</t>
+  </si>
+  <si>
+    <t>TRAUMS</t>
+  </si>
+  <si>
+    <t>BBP</t>
+  </si>
+  <si>
+    <t>ADM</t>
+  </si>
+  <si>
+    <t>MOSINJ</t>
+  </si>
+  <si>
+    <t>RADIO</t>
+  </si>
+  <si>
+    <t>EDPC</t>
+  </si>
+  <si>
+    <t>SAFE</t>
+  </si>
+  <si>
+    <t>MCI77</t>
+  </si>
+  <si>
+    <t>MCI76</t>
+  </si>
+  <si>
+    <t>NOVEH</t>
+  </si>
+  <si>
+    <t>EDPW</t>
+  </si>
+  <si>
+    <t>MOSILL</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>overlaid density plot for binning times</t>
+  </si>
+  <si>
+    <t>plot tim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">severity, zipcode, </t>
+  </si>
+  <si>
+    <t>plots by dispatch area?</t>
+  </si>
+  <si>
+    <t>dispatch area histo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1600,8 +1662,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1622,7 +1697,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1640,7 +1721,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1648,15 +1729,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1996,10 +2081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2011,10 +2096,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2025,49 +2110,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:3" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="19" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>497</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>498</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    </row>
+    <row r="8" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2078,6 +2163,9 @@
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -2087,19 +2175,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2119,164 +2207,179 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
+    <row r="16" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
+    <row r="26" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>61</v>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="13" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -2290,7 +2393,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2301,10 +2404,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2313,114 +2416,114 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2432,8 +2535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B272"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A256" sqref="A256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2442,16 +2545,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>500</v>
+      <c r="A1" s="7" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2460,2150 +2563,4743 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="6" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="6" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="6" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B9F90B-A922-124D-BF04-F35330AC33DC}">
+  <dimension ref="A1:F125"/>
+  <sheetViews>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115:XFD115"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" t="str">
+        <f>VLOOKUP(A5,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" t="str">
+        <f>VLOOKUP(A6,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" t="str">
+        <f>VLOOKUP(A7,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" t="str">
+        <f>VLOOKUP(A8,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" t="str">
+        <f>VLOOKUP(A9,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" t="str">
+        <f>VLOOKUP(A10,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" t="str">
+        <f>VLOOKUP(A11,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" t="str">
+        <f>VLOOKUP(A12,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" t="str">
+        <f>VLOOKUP(A13,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F14" t="str">
+        <f>VLOOKUP(A14,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" t="str">
+        <f>VLOOKUP(A15,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" t="str">
+        <f>VLOOKUP(A16,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F17" t="str">
+        <f>VLOOKUP(A17,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F18" t="str">
+        <f>VLOOKUP(A18,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F19" t="str">
+        <f>VLOOKUP(A19,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F20" t="str">
+        <f>VLOOKUP(A20,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F21" t="str">
+        <f>VLOOKUP(A21,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F22" t="str">
+        <f>VLOOKUP(A22,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="F23" t="str">
+        <f>VLOOKUP(A23,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F24" t="str">
+        <f>VLOOKUP(A24,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F25" t="str">
+        <f>VLOOKUP(A25,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F26" t="str">
+        <f>VLOOKUP(A26,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="F27" t="str">
+        <f>VLOOKUP(A27,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F28" t="str">
+        <f>VLOOKUP(A28,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F29" t="str">
+        <f>VLOOKUP(A29,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F30" t="str">
+        <f>VLOOKUP(A30,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="F31" t="str">
+        <f>VLOOKUP(A31,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="F32" t="str">
+        <f>VLOOKUP(A32,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="F33" t="str">
+        <f>VLOOKUP(A33,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="F34" t="str">
+        <f>VLOOKUP(A34,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="F35" t="str">
+        <f>VLOOKUP(A35,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="F36" t="str">
+        <f>VLOOKUP(A36,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="F37" t="str">
+        <f>VLOOKUP(A37,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="F38" t="str">
+        <f>VLOOKUP(A38,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="F39" t="str">
+        <f>VLOOKUP(A39,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="F40" t="str">
+        <f>VLOOKUP(A40,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="F41" t="str">
+        <f>VLOOKUP(A41,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="F42" t="str">
+        <f>VLOOKUP(A42,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="F43" t="str">
+        <f>VLOOKUP(A43,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="F44" t="str">
+        <f>VLOOKUP(A44,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="F45" t="str">
+        <f>VLOOKUP(A45,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="F46" t="str">
+        <f>VLOOKUP(A46,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="F47" t="str">
+        <f>VLOOKUP(A47,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="F48" t="str">
+        <f>VLOOKUP(A48,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F49" t="str">
+        <f>VLOOKUP(A49,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F50" t="str">
+        <f>VLOOKUP(A50,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="F51" t="str">
+        <f>VLOOKUP(A51,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="F52" t="str">
+        <f>VLOOKUP(A52,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="F53" t="str">
+        <f>VLOOKUP(A53,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="F54" t="str">
+        <f>VLOOKUP(A54,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="F55" t="str">
+        <f>VLOOKUP(A55,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="F56" t="str">
+        <f>VLOOKUP(A56,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="F57" t="str">
+        <f>VLOOKUP(A57,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="F58" t="str">
+        <f>VLOOKUP(A58,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="F59" t="str">
+        <f>VLOOKUP(A59,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="F60" t="str">
+        <f>VLOOKUP(A60,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F61" t="str">
+        <f>VLOOKUP(A61,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F62" t="str">
+        <f>VLOOKUP(A62,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F63" t="str">
+        <f>VLOOKUP(A63,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="F64" t="str">
+        <f>VLOOKUP(A64,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="F65" t="str">
+        <f>VLOOKUP(A65,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="F66" t="str">
+        <f>VLOOKUP(A66,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="F67" t="str">
+        <f>VLOOKUP(A67,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F68" t="str">
+        <f>VLOOKUP(A68,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F69" t="str">
+        <f>VLOOKUP(A69,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="F70" t="str">
+        <f>VLOOKUP(A70,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="F71" t="str">
+        <f>VLOOKUP(A71,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="F72" t="str">
+        <f>VLOOKUP(A72,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="F73" t="str">
+        <f>VLOOKUP(A73,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="F74" t="str">
+        <f>VLOOKUP(A74,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="F75" t="str">
+        <f>VLOOKUP(A75,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="F76" t="str">
+        <f>VLOOKUP(A76,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="F77" t="str">
+        <f>VLOOKUP(A77,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="F78" t="str">
+        <f>VLOOKUP(A78,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="F79" t="str">
+        <f>VLOOKUP(A79,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="F80" t="str">
+        <f>VLOOKUP(A80,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="F81" t="str">
+        <f>VLOOKUP(A81,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F82" t="str">
+        <f>VLOOKUP(A82,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="F83" t="str">
+        <f>VLOOKUP(A83,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="F84" t="str">
+        <f>VLOOKUP(A84,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="F85" t="str">
+        <f>VLOOKUP(A85,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="F86" t="str">
+        <f>VLOOKUP(A86,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="F87" t="str">
+        <f>VLOOKUP(A87,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="F88" t="str">
+        <f>VLOOKUP(A88,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="F89" t="str">
+        <f>VLOOKUP(A89,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="F90" t="str">
+        <f>VLOOKUP(A90,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="F91" t="str">
+        <f>VLOOKUP(A91,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="F92" t="str">
+        <f>VLOOKUP(A92,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="F93" t="str">
+        <f>VLOOKUP(A93,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="F94" t="str">
+        <f>VLOOKUP(A94,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="F95" t="str">
+        <f>VLOOKUP(A95,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="F96" t="str">
+        <f>VLOOKUP(A96,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="F97" t="str">
+        <f>VLOOKUP(A97,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="F98" t="str">
+        <f>VLOOKUP(A98,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="F99" t="str">
+        <f>VLOOKUP(A99,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="F100" t="str">
+        <f>VLOOKUP(A100,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="F101" t="str">
+        <f>VLOOKUP(A101,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="F102" t="str">
+        <f>VLOOKUP(A102,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="F103" t="str">
+        <f>VLOOKUP(A103,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="F104" t="str">
+        <f>VLOOKUP(A104,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="F105" t="str">
+        <f>VLOOKUP(A105,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="F106" t="str">
+        <f>VLOOKUP(A106,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="F107" t="str">
+        <f>VLOOKUP(A107,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="F108" t="str">
+        <f>VLOOKUP(A108,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="F109" t="str">
+        <f>VLOOKUP(A109,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F110" t="str">
+        <f>VLOOKUP(A110,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="F111" t="str">
+        <f>VLOOKUP(A111,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="F112" t="str">
+        <f>VLOOKUP(A112,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="F113" t="str">
+        <f>VLOOKUP(A113,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="F114" t="str">
+        <f>VLOOKUP(A114,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="F115" t="str">
+        <f>VLOOKUP(A115,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="F116" t="str">
+        <f>VLOOKUP(A116,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="F117" t="str">
+        <f>VLOOKUP(A117,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="F118" t="str">
+        <f>VLOOKUP(A118,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="F119" t="str">
+        <f>VLOOKUP(A119,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="F120" t="str">
+        <f>VLOOKUP(A120,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="F121" t="str">
+        <f>VLOOKUP(A121,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="F122" t="str">
+        <f>VLOOKUP(A122,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="F123" t="str">
+        <f>VLOOKUP(A123,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="F124" t="str">
+        <f>VLOOKUP(A124,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="F125" t="str">
+        <f>VLOOKUP(A125,Sheet3!$A:$B,2,FALSE)</f>
+        <v>Y</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A4:F125" xr:uid="{A26828E3-43F2-834C-9CED-83B936D2F34B}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE2B437C-5A61-3F44-841E-329D88593127}">
+  <dimension ref="A1:B136"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>402</v>
+      </c>
+      <c r="B5" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B6" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B8" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>501</v>
+      </c>
+      <c r="B10" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>404</v>
+      </c>
+      <c r="B11" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>367</v>
+      </c>
+      <c r="B13" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>445</v>
+      </c>
+      <c r="B14" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B15" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>378</v>
+      </c>
+      <c r="B16" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>414</v>
+      </c>
+      <c r="B18" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>240</v>
+      </c>
+      <c r="B19" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>436</v>
+      </c>
+      <c r="B21" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>382</v>
+      </c>
+      <c r="B23" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>163</v>
+      </c>
+      <c r="B24" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>249</v>
+      </c>
+      <c r="B25" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>502</v>
+      </c>
+      <c r="B26" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>481</v>
+      </c>
+      <c r="B28" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>233</v>
+      </c>
+      <c r="B29" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>439</v>
+      </c>
+      <c r="B31" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>211</v>
+      </c>
+      <c r="B32" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>260</v>
+      </c>
+      <c r="B33" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>384</v>
+      </c>
+      <c r="B34" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>399</v>
+      </c>
+      <c r="B35" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>388</v>
+      </c>
+      <c r="B36" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B37" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>390</v>
+      </c>
+      <c r="B38" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>454</v>
+      </c>
+      <c r="B39" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>198</v>
+      </c>
+      <c r="B40" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>503</v>
+      </c>
+      <c r="B41" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>424</v>
+      </c>
+      <c r="B42" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>504</v>
+      </c>
+      <c r="B43" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>423</v>
+      </c>
+      <c r="B44" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>430</v>
+      </c>
+      <c r="B45" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>272</v>
+      </c>
+      <c r="B46" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>459</v>
+      </c>
+      <c r="B47" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>152</v>
+      </c>
+      <c r="B48" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>181</v>
+      </c>
+      <c r="B49" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>238</v>
+      </c>
+      <c r="B51" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>465</v>
+      </c>
+      <c r="B52" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>289</v>
+      </c>
+      <c r="B53" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>217</v>
+      </c>
+      <c r="B54" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>440</v>
+      </c>
+      <c r="B55" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>505</v>
+      </c>
+      <c r="B56" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>130</v>
+      </c>
+      <c r="B57" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>411</v>
+      </c>
+      <c r="B58" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>506</v>
+      </c>
+      <c r="B59" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>315</v>
+      </c>
+      <c r="B60" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>478</v>
+      </c>
+      <c r="B61" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>196</v>
+      </c>
+      <c r="B62" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>475</v>
+      </c>
+      <c r="B63" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>507</v>
+      </c>
+      <c r="B64" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>369</v>
+      </c>
+      <c r="B65" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>508</v>
+      </c>
+      <c r="B66" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>467</v>
+      </c>
+      <c r="B67" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>208</v>
+      </c>
+      <c r="B68" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>509</v>
+      </c>
+      <c r="B69" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>510</v>
+      </c>
+      <c r="B70" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>205</v>
+      </c>
+      <c r="B71" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>511</v>
+      </c>
+      <c r="B72" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>291</v>
+      </c>
+      <c r="B73" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>366</v>
+      </c>
+      <c r="B74" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>306</v>
+      </c>
+      <c r="B75" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>447</v>
+      </c>
+      <c r="B76" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>449</v>
+      </c>
+      <c r="B77" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>274</v>
+      </c>
+      <c r="B78" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>456</v>
+      </c>
+      <c r="B79" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>257</v>
+      </c>
+      <c r="B80" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>428</v>
+      </c>
+      <c r="B81" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>386</v>
+      </c>
+      <c r="B82" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>512</v>
+      </c>
+      <c r="B83" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>489</v>
+      </c>
+      <c r="B84" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>513</v>
+      </c>
+      <c r="B85" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>407</v>
+      </c>
+      <c r="B86" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>461</v>
+      </c>
+      <c r="B87" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>294</v>
+      </c>
+      <c r="B88" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>364</v>
+      </c>
+      <c r="B89" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>191</v>
+      </c>
+      <c r="B90" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>487</v>
+      </c>
+      <c r="B91" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>434</v>
+      </c>
+      <c r="B92" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>283</v>
+      </c>
+      <c r="B94" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>165</v>
+      </c>
+      <c r="B95" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>268</v>
+      </c>
+      <c r="B96" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>150</v>
+      </c>
+      <c r="B97" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>113</v>
+      </c>
+      <c r="B98" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>371</v>
+      </c>
+      <c r="B99" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>111</v>
+      </c>
+      <c r="B100" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>292</v>
+      </c>
+      <c r="B101" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>514</v>
+      </c>
+      <c r="B102" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>187</v>
+      </c>
+      <c r="B103" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>262</v>
+      </c>
+      <c r="B104" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>202</v>
+      </c>
+      <c r="B105" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>322</v>
+      </c>
+      <c r="B106" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>324</v>
+      </c>
+      <c r="B107" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>297</v>
+      </c>
+      <c r="B108" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>327</v>
+      </c>
+      <c r="B109" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>339</v>
+      </c>
+      <c r="B110" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>442</v>
+      </c>
+      <c r="B111" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>301</v>
+      </c>
+      <c r="B112" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>313</v>
+      </c>
+      <c r="B113" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>319</v>
+      </c>
+      <c r="B114" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>332</v>
+      </c>
+      <c r="B115" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>354</v>
+      </c>
+      <c r="B116" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>302</v>
+      </c>
+      <c r="B117" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>321</v>
+      </c>
+      <c r="B118" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>363</v>
+      </c>
+      <c r="B119" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>328</v>
+      </c>
+      <c r="B120" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>298</v>
+      </c>
+      <c r="B121" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>356</v>
+      </c>
+      <c r="B122" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>331</v>
+      </c>
+      <c r="B123" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>343</v>
+      </c>
+      <c r="B124" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>351</v>
+      </c>
+      <c r="B125" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>330</v>
+      </c>
+      <c r="B126" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>349</v>
+      </c>
+      <c r="B127" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>361</v>
+      </c>
+      <c r="B128" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>352</v>
+      </c>
+      <c r="B129" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>300</v>
+      </c>
+      <c r="B130" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>318</v>
+      </c>
+      <c r="B131" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>312</v>
+      </c>
+      <c r="B132" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>295</v>
+      </c>
+      <c r="B133" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>325</v>
+      </c>
+      <c r="B134" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>337</v>
+      </c>
+      <c r="B135" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>347</v>
+      </c>
+      <c r="B136" t="s">
+        <v>515</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/EMS_incident_dispatch_data_description.xlsx
+++ b/EMS_incident_dispatch_data_description.xlsx
@@ -1,33 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandarella/Documents/NYU/DS-GA_1001/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandakuznecov/Documents/NYU/DS-GA_1001/Project/CodeBlue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61F3B5D-4346-0D42-B63C-8C658A23C286}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BAEA63-2E30-DD41-9736-71C5FB31E18C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="480" windowWidth="23960" windowHeight="16320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="260" yWindow="2540" windowWidth="23960" windowHeight="16320" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EMS File Description" sheetId="1" r:id="rId1"/>
     <sheet name="Incident Dispositions" sheetId="2" r:id="rId2"/>
     <sheet name="Call Type Descriptions" sheetId="3" r:id="rId3"/>
-    <sheet name="Call Type Descriptions FINAL" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
+    <sheet name="Call Type Consolidated" sheetId="6" r:id="rId4"/>
+    <sheet name="Incident Dispatch Areas" sheetId="8" r:id="rId5"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Call Type Descriptions FINAL'!$A$4:$F$125</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="579">
   <si>
     <t>CAD_INCIDENT_ID</t>
   </si>
@@ -1561,45 +1566,24 @@
     <t>TRAUMS</t>
   </si>
   <si>
-    <t>BBP</t>
-  </si>
-  <si>
-    <t>ADM</t>
-  </si>
-  <si>
     <t>MOSINJ</t>
   </si>
   <si>
-    <t>RADIO</t>
-  </si>
-  <si>
     <t>EDPC</t>
   </si>
   <si>
-    <t>SAFE</t>
-  </si>
-  <si>
     <t>MCI77</t>
   </si>
   <si>
     <t>MCI76</t>
   </si>
   <si>
-    <t>NOVEH</t>
-  </si>
-  <si>
     <t>EDPW</t>
   </si>
   <si>
     <t>MOSILL</t>
   </si>
   <si>
-    <t>ACC</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>overlaid density plot for binning times</t>
   </si>
   <si>
@@ -1613,13 +1597,208 @@
   </si>
   <si>
     <t>dispatch area histo</t>
+  </si>
+  <si>
+    <t>Abdominal</t>
+  </si>
+  <si>
+    <t>Amputation</t>
+  </si>
+  <si>
+    <t>Cardiac</t>
+  </si>
+  <si>
+    <t>Asthma</t>
+  </si>
+  <si>
+    <t>Stroke</t>
+  </si>
+  <si>
+    <t>Burn</t>
+  </si>
+  <si>
+    <t>Death</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>Internal Bleeding</t>
+  </si>
+  <si>
+    <t>Injury</t>
+  </si>
+  <si>
+    <t>Jumper</t>
+  </si>
+  <si>
+    <t>Call Type</t>
+  </si>
+  <si>
+    <t>Call Description</t>
+  </si>
+  <si>
+    <t>Altered Mental Status</t>
+  </si>
+  <si>
+    <t>Psych</t>
+  </si>
+  <si>
+    <t>Medication Reaction</t>
+  </si>
+  <si>
+    <t>Gyno &amp; Obstetrics</t>
+  </si>
+  <si>
+    <t>Police Incident</t>
+  </si>
+  <si>
+    <t>Respiratory</t>
+  </si>
+  <si>
+    <t>Sieizure</t>
+  </si>
+  <si>
+    <t>Sick</t>
+  </si>
+  <si>
+    <t>Unconscious</t>
+  </si>
+  <si>
+    <t>Trauma</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>New Code</t>
+  </si>
+  <si>
+    <t>Old Code</t>
+  </si>
+  <si>
+    <t>Car Accident</t>
+  </si>
+  <si>
+    <t>Shooting</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Incident Dispatch Area</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>CW</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>K4</t>
+  </si>
+  <si>
+    <t>K5</t>
+  </si>
+  <si>
+    <t>K6</t>
+  </si>
+  <si>
+    <t>K7</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>M7</t>
+  </si>
+  <si>
+    <t>M8</t>
+  </si>
+  <si>
+    <t>M9</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>X2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1675,8 +1854,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1707,6 +1905,102 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1721,7 +2015,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1742,6 +2036,156 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2361,25 +2805,25 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -2535,8 +2979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B272"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A256" sqref="A256"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4712,2594 +5156,1827 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B9F90B-A922-124D-BF04-F35330AC33DC}">
-  <dimension ref="A1:F125"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE2B437C-5A61-3F44-841E-329D88593127}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115:XFD115"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="20"/>
+    <col min="2" max="2" width="10.83203125" style="58"/>
+    <col min="3" max="3" width="15.1640625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="20" customWidth="1"/>
+    <col min="5" max="5" width="39.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>539</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>538</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>525</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="23">
+        <v>0</v>
+      </c>
+      <c r="B2" s="76">
+        <v>0</v>
+      </c>
+      <c r="C2" s="93" t="s">
+        <v>514</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="E2" s="22" t="str">
+        <f>VLOOKUP(D2,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>ABDOMINAL PAIN-FEVER &amp; COUGH</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="23">
+        <v>1</v>
+      </c>
+      <c r="B3" s="76"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="22" t="str">
+        <f>VLOOKUP(D3,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>ABDOMINAL PAIN</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25">
+        <v>3</v>
+      </c>
+      <c r="B4" s="73">
+        <v>1</v>
+      </c>
+      <c r="C4" s="91" t="s">
+        <v>527</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="26" t="str">
+        <f>VLOOKUP(D4,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>ALTERED MENTAL STATUS</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="25">
+        <v>4</v>
+      </c>
+      <c r="B5" s="73"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="26" t="str">
+        <f>VLOOKUP(D5,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>ALT MENTAL STATUS-FEVER&amp;COUGH</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="29">
+        <v>5</v>
+      </c>
+      <c r="B6" s="74">
+        <v>2</v>
+      </c>
+      <c r="C6" s="84" t="s">
+        <v>515</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="28" t="str">
+        <f>VLOOKUP(D6,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>AMPUTATION, ARM, HAND,LEG,FOOT</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="29">
+        <v>6</v>
+      </c>
+      <c r="B7" s="74"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="28" t="str">
+        <f>VLOOKUP(D7,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>AMPUTATION, FINGERS OR TOES</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="20">
+        <v>7</v>
+      </c>
+      <c r="B8" s="58">
+        <v>3</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="21" t="str">
+        <f>VLOOKUP(D8,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>ANAPHYLAXIS</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="35">
+        <v>8</v>
+      </c>
+      <c r="B9" s="62">
+        <v>4</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>516</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="34" t="str">
+        <f>VLOOKUP(D9,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>CARDIAC ARREST</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="35">
+        <v>13</v>
+      </c>
+      <c r="B10" s="62"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10" s="34" t="str">
+        <f>VLOOKUP(D10,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>CARDIAC CONDITION</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="35">
+        <v>14</v>
+      </c>
+      <c r="B11" s="62"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="34" t="s">
+        <v>500</v>
+      </c>
+      <c r="E11" s="34" t="e">
+        <f>VLOOKUP(D11,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="35">
+        <v>15</v>
+      </c>
+      <c r="B12" s="62"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="E12" s="34" t="str">
+        <f>VLOOKUP(D12,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>CARDIAC CONDITION-FEVER&amp;COUGH</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="31">
+        <v>9</v>
+      </c>
+      <c r="B13" s="77">
+        <v>5</v>
+      </c>
+      <c r="C13" s="94" t="s">
+        <v>517</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="30" t="str">
+        <f>VLOOKUP(D13,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>ASTHMA ATTACK - FEVER&amp;COUGH</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="31">
+        <v>10</v>
+      </c>
+      <c r="B14" s="77"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="30" t="str">
+        <f>VLOOKUP(D14,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>ASTHMA ATTACK</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="33">
+        <v>11</v>
+      </c>
+      <c r="B15" s="78">
+        <v>6</v>
+      </c>
+      <c r="C15" s="95" t="s">
+        <v>519</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" s="32" t="str">
+        <f>VLOOKUP(D15,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>MAJOR BURNS 18% ADLT 10% CHILD</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="33">
+        <v>12</v>
+      </c>
+      <c r="B16" s="78"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="E16" s="32" t="str">
+        <f>VLOOKUP(D16,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>MINOR BURNS &lt;18% ADLT OR &lt;10%</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="20">
+        <v>16</v>
+      </c>
+      <c r="B17" s="58">
+        <v>7</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="E17" s="21" t="str">
+        <f>VLOOKUP(D17,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>CHILD ABUSE</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="20">
+        <v>17</v>
+      </c>
+      <c r="B18" s="58">
+        <v>8</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18" s="21" t="str">
+        <f>VLOOKUP(D18,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>CHOKING</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="20">
+        <v>18</v>
+      </c>
+      <c r="B19" s="58">
+        <v>9</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E19" s="21" t="str">
+        <f>VLOOKUP(D19,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>HYPOTHERMIA</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="37">
+        <v>19</v>
+      </c>
+      <c r="B20" s="71">
+        <v>10</v>
+      </c>
+      <c r="C20" s="87" t="s">
+        <v>518</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="E20" s="36" t="str">
+        <f>VLOOKUP(D20,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>STROKE</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="37">
+        <v>20</v>
+      </c>
+      <c r="B21" s="71"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="E21" s="36" t="str">
+        <f>VLOOKUP(D21,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>CVA (STROKE)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="37">
+        <v>21</v>
+      </c>
+      <c r="B22" s="71"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="E22" s="36" t="str">
+        <f>VLOOKUP(D22,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>STROKE CRITICAL - FEVER&amp;COUGH</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="37">
+        <v>22</v>
+      </c>
+      <c r="B23" s="71"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="E23" s="36" t="str">
+        <f>VLOOKUP(D23,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>STROKE - FEVER &amp; COUGH</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="39">
+        <v>23</v>
+      </c>
+      <c r="B24" s="72">
+        <v>11</v>
+      </c>
+      <c r="C24" s="90" t="s">
+        <v>520</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="E24" s="38" t="str">
+        <f>VLOOKUP(D24,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>DEATH CONFIRM BY MEDICAL AUTH</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="39">
+        <v>27</v>
+      </c>
+      <c r="B25" s="72"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="E25" s="38" t="str">
+        <f>VLOOKUP(D25,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>DEATH CONFIRM BY MEDICAL AUTH</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="49">
+        <v>24</v>
+      </c>
+      <c r="B26" s="67">
+        <v>12</v>
+      </c>
+      <c r="C26" s="83" t="s">
+        <v>532</v>
+      </c>
+      <c r="D26" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="E26" s="48" t="str">
+        <f>VLOOKUP(D26,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>DIFFICULT BREATHER</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="49">
+        <v>25</v>
+      </c>
+      <c r="B27" s="67"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="E27" s="48" t="str">
+        <f>VLOOKUP(D27,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>DIFF BREATHING - FEVER&amp;COUGH</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="49">
+        <v>26</v>
+      </c>
+      <c r="B28" s="67"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="48" t="s">
+        <v>202</v>
+      </c>
+      <c r="E28" s="48" t="str">
+        <f>VLOOKUP(D28,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>DIFFICULT BREATHER RF</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="49">
+        <v>75</v>
+      </c>
+      <c r="B29" s="67"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="48" t="s">
+        <v>424</v>
+      </c>
+      <c r="E29" s="48" t="str">
+        <f>VLOOKUP(D29,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>RESP DISTRESS - FEVER&amp;COUGH</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="49">
+        <v>76</v>
+      </c>
+      <c r="B30" s="67"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="48" t="s">
+        <v>428</v>
+      </c>
+      <c r="E30" s="48" t="str">
+        <f>VLOOKUP(D30,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>RESPIRATORY DISTRESS</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="49">
+        <v>41</v>
+      </c>
+      <c r="B31" s="67"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="E31" s="48" t="str">
+        <f>VLOOKUP(D31,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>INHALATION OF SMOKE</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="59">
+        <v>28</v>
+      </c>
+      <c r="B32" s="58">
+        <v>13</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="E32" s="21" t="str">
+        <f>VLOOKUP(D32,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>DROWNING</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="59">
+        <v>29</v>
+      </c>
+      <c r="B33" s="58">
+        <v>14</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="E33" s="21" t="str">
+        <f>VLOOKUP(D33,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>HX DRUG OR ALCOHOL ABUSE</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="25">
+        <v>30</v>
+      </c>
+      <c r="B34" s="73">
+        <v>15</v>
+      </c>
+      <c r="C34" s="91" t="s">
+        <v>528</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="E34" s="26" t="str">
+        <f>VLOOKUP(D34,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>PSYCHIATRIC PATIENT</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="25">
+        <v>31</v>
+      </c>
+      <c r="B35" s="73"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="26" t="s">
+        <v>504</v>
+      </c>
+      <c r="E35" s="26" t="e">
+        <f>VLOOKUP(D35,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="25">
+        <v>32</v>
+      </c>
+      <c r="B36" s="73"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="26" t="s">
+        <v>507</v>
+      </c>
+      <c r="E36" s="26" t="e">
+        <f>VLOOKUP(D36,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="59">
+        <v>33</v>
+      </c>
+      <c r="B37" s="58">
+        <v>16</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="E37" s="21" t="str">
+        <f>VLOOKUP(D37,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>ELECTROCUTION</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="29">
+        <v>35</v>
+      </c>
+      <c r="B38" s="74">
+        <v>17</v>
+      </c>
+      <c r="C38" s="84" t="s">
+        <v>530</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="E38" s="28" t="str">
+        <f>VLOOKUP(D38,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>GYN BLEEDING/PT NOT PREGNANT</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="29">
+        <v>36</v>
+      </c>
+      <c r="B39" s="74"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="E39" s="28" t="str">
+        <f>VLOOKUP(D39,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>GYN/SEVERE PAIN/BLEEDING</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="29">
+        <v>63</v>
+      </c>
+      <c r="B40" s="74"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="28" t="s">
+        <v>382</v>
+      </c>
+      <c r="E40" s="28" t="str">
+        <f>VLOOKUP(D40,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>OBSTETRIC COMPLICATIONS</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="29">
+        <v>64</v>
+      </c>
+      <c r="B41" s="74"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="28" t="s">
+        <v>384</v>
+      </c>
+      <c r="E41" s="28" t="str">
+        <f>VLOOKUP(D41,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>FEMALE IN LABOR</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="29">
+        <v>65</v>
+      </c>
+      <c r="B42" s="74"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="E42" s="28" t="str">
+        <f>VLOOKUP(D42,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>MAJOR OBSTETRICAL COMPLAINT</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="29">
+        <v>66</v>
+      </c>
+      <c r="B43" s="74"/>
+      <c r="C43" s="84"/>
+      <c r="D43" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="E43" s="28" t="str">
+        <f>VLOOKUP(D43,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>MISCARRIAGE</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="29">
+        <v>67</v>
+      </c>
+      <c r="B44" s="74"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="E44" s="28" t="str">
+        <f>VLOOKUP(D44,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>BABY OUT OR IMMINENT BIRTH</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="59">
+        <v>37</v>
+      </c>
+      <c r="B45" s="58">
+        <v>18</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="E45" s="21" t="str">
+        <f>VLOOKUP(D45,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>HEAT EXHAUSTION</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="59">
+        <v>38</v>
+      </c>
+      <c r="B46" s="58">
+        <v>19</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="E46" s="21" t="str">
+        <f>VLOOKUP(D46,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>HYPERTENSION</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="43">
+        <v>39</v>
+      </c>
+      <c r="B47" s="75">
+        <v>20</v>
+      </c>
+      <c r="C47" s="92" t="s">
+        <v>522</v>
+      </c>
+      <c r="D47" s="42" t="s">
+        <v>260</v>
+      </c>
+      <c r="E47" s="42" t="str">
+        <f>VLOOKUP(D47,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>INTERNAL BLEEDING</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="43">
+        <v>40</v>
+      </c>
+      <c r="B48" s="75"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="42" t="s">
+        <v>262</v>
+      </c>
+      <c r="E48" s="42" t="str">
+        <f>VLOOKUP(D48,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>INTERNAL BLEEDING-FEVER&amp;COUGH</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="51">
+        <v>42</v>
+      </c>
+      <c r="B49" s="68">
+        <v>21</v>
+      </c>
+      <c r="C49" s="64" t="s">
+        <v>523</v>
+      </c>
+      <c r="D49" s="50" t="s">
+        <v>272</v>
+      </c>
+      <c r="E49" s="50" t="str">
+        <f>VLOOKUP(D49,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>MAJOR INJURY</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="51">
+        <v>43</v>
+      </c>
+      <c r="B50" s="68"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="50" t="s">
+        <v>274</v>
+      </c>
+      <c r="E50" s="50" t="str">
+        <f>VLOOKUP(D50,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>MINOR INJURY</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="51">
+        <v>44</v>
+      </c>
+      <c r="B51" s="68"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="50" t="s">
+        <v>276</v>
+      </c>
+      <c r="E51" s="50" t="str">
+        <f>VLOOKUP(D51,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>NON-CRITICAL INJURY</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="51">
+        <v>59</v>
+      </c>
+      <c r="B52" s="68"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="50" t="s">
+        <v>503</v>
+      </c>
+      <c r="E52" s="50" t="e">
+        <f>VLOOKUP(D52,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="45">
+        <v>45</v>
+      </c>
+      <c r="B53" s="66">
+        <v>22</v>
+      </c>
+      <c r="C53" s="85" t="s">
+        <v>524</v>
+      </c>
+      <c r="D53" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="E53" s="44" t="str">
+        <f>VLOOKUP(D53,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>JUMPER DOWN</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="45">
+        <v>46</v>
+      </c>
+      <c r="B54" s="66"/>
+      <c r="C54" s="85"/>
+      <c r="D54" s="44" t="s">
+        <v>283</v>
+      </c>
+      <c r="E54" s="44" t="str">
+        <f>VLOOKUP(D54,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>JUMPER UP</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="35">
+        <v>47</v>
+      </c>
+      <c r="B55" s="62">
+        <v>23</v>
+      </c>
+      <c r="C55" s="63" t="s">
+        <v>521</v>
+      </c>
+      <c r="D55" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="E55" s="34" t="str">
+        <f>VLOOKUP(D55,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>ONE ALARM FIRE</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="35">
+        <v>48</v>
+      </c>
+      <c r="B56" s="62"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="E56" s="34" t="str">
+        <f>VLOOKUP(D56,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>ONE ALARM FIRE</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="35">
+        <v>49</v>
+      </c>
+      <c r="B57" s="62"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="E57" s="34" t="str">
+        <f>VLOOKUP(D57,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>TWO ALARM FIRE</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="35">
+        <v>50</v>
+      </c>
+      <c r="B58" s="62"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="E58" s="34" t="str">
+        <f>VLOOKUP(D58,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>TWO ALARM FIRE</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="35">
+        <v>34</v>
+      </c>
+      <c r="B59" s="62"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="E59" s="34" t="str">
+        <f>VLOOKUP(D59,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>FIRE77 HIGH RISE RESIDENTIAL</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="35">
+        <v>51</v>
+      </c>
+      <c r="B60" s="62"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="E60" s="34" t="str">
+        <f>VLOOKUP(D60,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>OCCUPIED HIGH-RISE BUILDING</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="35">
+        <v>53</v>
+      </c>
+      <c r="B61" s="62"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="34" t="s">
+        <v>506</v>
+      </c>
+      <c r="E61" s="34" t="e">
+        <f>VLOOKUP(D61,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="35">
+        <v>54</v>
+      </c>
+      <c r="B62" s="62"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="34" t="s">
+        <v>505</v>
+      </c>
+      <c r="E62" s="34" t="e">
+        <f>VLOOKUP(D62,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="35">
+        <v>52</v>
+      </c>
+      <c r="B63" s="62"/>
+      <c r="C63" s="63"/>
+      <c r="D63" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="E63" s="34" t="str">
+        <f>VLOOKUP(D63,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>REPORT OF EXPLOSIVES</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="37">
+        <v>55</v>
+      </c>
+      <c r="B64" s="71">
+        <v>24</v>
+      </c>
+      <c r="C64" s="87" t="s">
+        <v>529</v>
+      </c>
+      <c r="D64" s="36" t="s">
+        <v>367</v>
+      </c>
+      <c r="E64" s="36" t="str">
+        <f>VLOOKUP(D64,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>REACTION TO MED - FEVER&amp;COUGH</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="37">
+        <v>56</v>
+      </c>
+      <c r="B65" s="71"/>
+      <c r="C65" s="87"/>
+      <c r="D65" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="E65" s="36" t="str">
+        <f>VLOOKUP(D65,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>REACTION TO MEDICATION</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="37">
+        <v>57</v>
+      </c>
+      <c r="B66" s="71"/>
+      <c r="C66" s="87"/>
+      <c r="D66" s="36" t="s">
+        <v>371</v>
+      </c>
+      <c r="E66" s="36" t="str">
+        <f>VLOOKUP(D66,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>MEDEVAC, T/C AUTHORITY ONLY</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="47">
+        <v>60</v>
+      </c>
+      <c r="B67" s="89">
+        <v>25</v>
+      </c>
+      <c r="C67" s="88" t="s">
+        <v>540</v>
+      </c>
+      <c r="D67" s="46" t="s">
+        <v>376</v>
+      </c>
+      <c r="E67" s="46" t="str">
+        <f>VLOOKUP(D67,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>AUTO ACCIDENT, NO CONFIRMD INJ</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="47">
+        <v>61</v>
+      </c>
+      <c r="B68" s="89"/>
+      <c r="C68" s="88"/>
+      <c r="D68" s="46" t="s">
+        <v>378</v>
+      </c>
+      <c r="E68" s="46" t="str">
+        <f>VLOOKUP(D68,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>AUTO ACC W/INJURIES</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="47">
+        <v>62</v>
+      </c>
+      <c r="B69" s="89"/>
+      <c r="C69" s="88"/>
+      <c r="D69" s="46" t="s">
+        <v>501</v>
+      </c>
+      <c r="E69" s="46" t="e">
+        <f>VLOOKUP(D69,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="45">
+        <v>69</v>
+      </c>
+      <c r="B70" s="66">
+        <v>26</v>
+      </c>
+      <c r="C70" s="85" t="s">
+        <v>531</v>
+      </c>
+      <c r="D70" s="44" t="s">
+        <v>402</v>
+      </c>
+      <c r="E70" s="44" t="str">
+        <f>VLOOKUP(D70,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>POLICE 10-13, UNCONFIRMED</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="45">
+        <v>70</v>
+      </c>
+      <c r="B71" s="66"/>
+      <c r="C71" s="85"/>
+      <c r="D71" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="E71" s="44" t="str">
+        <f>VLOOKUP(D71,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>POLICE 10-13, CONFIRMED</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="49">
+        <v>71</v>
+      </c>
+      <c r="B72" s="67">
+        <v>27</v>
+      </c>
+      <c r="C72" s="83" t="s">
+        <v>534</v>
+      </c>
+      <c r="D72" s="48" t="s">
+        <v>407</v>
+      </c>
+      <c r="E72" s="48" t="str">
+        <f>VLOOKUP(D72,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>SICK PED&lt;5 YRS-FEVER &amp; COUGH</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="49">
+        <v>72</v>
+      </c>
+      <c r="B73" s="67"/>
+      <c r="C73" s="83"/>
+      <c r="D73" s="48" t="s">
+        <v>411</v>
+      </c>
+      <c r="E73" s="48" t="str">
+        <f>VLOOKUP(D73,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>SICK PED&lt;5 YRS-RASH &amp; FEVER</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="49">
+        <v>82</v>
+      </c>
+      <c r="B74" s="67"/>
+      <c r="C74" s="83"/>
+      <c r="D74" s="48" t="s">
+        <v>440</v>
+      </c>
+      <c r="E74" s="48" t="str">
+        <f>VLOOKUP(D74,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>SICK - COUGH &amp; FEVER</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="49">
+        <v>83</v>
+      </c>
+      <c r="B75" s="67"/>
+      <c r="C75" s="83"/>
+      <c r="D75" s="48" t="s">
+        <v>445</v>
+      </c>
+      <c r="E75" s="48" t="str">
+        <f>VLOOKUP(D75,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>SICK - RASH AND FEVER</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="49">
+        <v>84</v>
+      </c>
+      <c r="B76" s="67"/>
+      <c r="C76" s="83"/>
+      <c r="D76" s="48" t="s">
+        <v>447</v>
+      </c>
+      <c r="E76" s="48" t="str">
+        <f>VLOOKUP(D76,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>MINOR ILLNESS</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="49">
+        <v>85</v>
+      </c>
+      <c r="B77" s="67"/>
+      <c r="C77" s="83"/>
+      <c r="D77" s="48" t="s">
+        <v>449</v>
+      </c>
+      <c r="E77" s="48" t="str">
+        <f>VLOOKUP(D77,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>SICK PEDIATRIC, &lt;5 YEAR OLD</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="49" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="49">
+        <v>81</v>
+      </c>
+      <c r="B78" s="67"/>
+      <c r="C78" s="83"/>
+      <c r="D78" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="E78" s="48" t="str">
+        <f>VLOOKUP(D78,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>SICK</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="49">
+        <v>58</v>
+      </c>
+      <c r="B79" s="67"/>
+      <c r="C79" s="83"/>
+      <c r="D79" s="48" t="s">
+        <v>508</v>
+      </c>
+      <c r="E79" s="48" t="e">
+        <f>VLOOKUP(D79,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="59">
+        <v>73</v>
+      </c>
+      <c r="B80" s="58">
+        <v>28</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="E80" s="21" t="str">
+        <f>VLOOKUP(D80,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>PEDESTRIAN STRUCK</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="59">
+        <v>74</v>
+      </c>
+      <c r="B81" s="58">
+        <v>29</v>
+      </c>
+      <c r="D81" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="E81" s="21" t="str">
+        <f>VLOOKUP(D81,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>RAPE</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="51">
+        <v>78</v>
+      </c>
+      <c r="B82" s="68">
+        <v>30</v>
+      </c>
+      <c r="C82" s="64" t="s">
+        <v>533</v>
+      </c>
+      <c r="D82" s="50" t="s">
+        <v>430</v>
+      </c>
+      <c r="E82" s="50" t="str">
+        <f>VLOOKUP(D82,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>SEIZURES - FEVER &amp; COUGH</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="51">
+        <v>79</v>
+      </c>
+      <c r="B83" s="68"/>
+      <c r="C83" s="64"/>
+      <c r="D83" s="50" t="s">
+        <v>434</v>
+      </c>
+      <c r="E83" s="50" t="str">
+        <f>VLOOKUP(D83,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>SEIZURES</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="51">
+        <v>88</v>
+      </c>
+      <c r="B84" s="68"/>
+      <c r="C84" s="64"/>
+      <c r="D84" s="50" t="s">
+        <v>461</v>
+      </c>
+      <c r="E84" s="50" t="str">
+        <f>VLOOKUP(D84,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>MULT OR PROLONG SEIZUR-FEV&amp;COU</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="57">
+        <v>80</v>
+      </c>
+      <c r="B85" s="79">
+        <v>31</v>
+      </c>
+      <c r="C85" s="82" t="s">
+        <v>541</v>
+      </c>
+      <c r="D85" s="56" t="s">
+        <v>436</v>
+      </c>
+      <c r="E85" s="56" t="str">
+        <f>VLOOKUP(D85,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>GUN SHOT WOUND</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="57">
+        <v>2</v>
+      </c>
+      <c r="B86" s="79"/>
+      <c r="C86" s="82"/>
+      <c r="D86" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="E86" s="56" t="str">
+        <f>VLOOKUP(D86,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>ACTIVE SHOOTER</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="59">
+        <v>86</v>
+      </c>
+      <c r="B87" s="60">
+        <v>32</v>
+      </c>
+      <c r="D87" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="E87" s="21" t="str">
+        <f>VLOOKUP(D87,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>STABBING</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="59">
+        <v>87</v>
+      </c>
+      <c r="B88" s="60">
+        <v>33</v>
+      </c>
+      <c r="D88" s="21" t="s">
+        <v>459</v>
+      </c>
+      <c r="E88" s="21" t="str">
+        <f>VLOOKUP(D88,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>STATUS EPILEPTICUS</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="55">
+        <v>90</v>
+      </c>
+      <c r="B89" s="69">
+        <v>34</v>
+      </c>
+      <c r="C89" s="81" t="s">
+        <v>536</v>
+      </c>
+      <c r="D89" s="54" t="s">
+        <v>475</v>
+      </c>
+      <c r="E89" s="54" t="str">
+        <f>VLOOKUP(D89,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>MULTIPLE TRAUMA PATIENT</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="55">
+        <v>91</v>
+      </c>
+      <c r="B90" s="69"/>
+      <c r="C90" s="81"/>
+      <c r="D90" s="54" t="s">
+        <v>502</v>
+      </c>
+      <c r="E90" s="54" t="e">
+        <f>VLOOKUP(D90,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="41">
         <v>92</v>
       </c>
-      <c r="F5" t="str">
-        <f>VLOOKUP(A5,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6" t="str">
-        <f>VLOOKUP(A6,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7" t="str">
-        <f>VLOOKUP(A7,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F8" t="str">
-        <f>VLOOKUP(A8,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F9" t="str">
-        <f>VLOOKUP(A9,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F10" t="str">
-        <f>VLOOKUP(A10,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F11" t="str">
-        <f>VLOOKUP(A11,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F12" t="str">
-        <f>VLOOKUP(A12,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="F13" t="str">
-        <f>VLOOKUP(A13,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F14" t="str">
-        <f>VLOOKUP(A14,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F15" t="str">
-        <f>VLOOKUP(A15,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F16" t="str">
-        <f>VLOOKUP(A16,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="F17" t="str">
-        <f>VLOOKUP(A17,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="F18" t="str">
-        <f>VLOOKUP(A18,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="F19" t="str">
-        <f>VLOOKUP(A19,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="F20" t="str">
-        <f>VLOOKUP(A20,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="F21" t="str">
-        <f>VLOOKUP(A21,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="F22" t="str">
-        <f>VLOOKUP(A22,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="F23" t="str">
-        <f>VLOOKUP(A23,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="F24" t="str">
-        <f>VLOOKUP(A24,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="F25" t="str">
-        <f>VLOOKUP(A25,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="F26" t="str">
-        <f>VLOOKUP(A26,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="F27" t="str">
-        <f>VLOOKUP(A27,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="F28" t="str">
-        <f>VLOOKUP(A28,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="F29" t="str">
-        <f>VLOOKUP(A29,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="F30" t="str">
-        <f>VLOOKUP(A30,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="F31" t="str">
-        <f>VLOOKUP(A31,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="F32" t="str">
-        <f>VLOOKUP(A32,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="F33" t="str">
-        <f>VLOOKUP(A33,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="F34" t="str">
-        <f>VLOOKUP(A34,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="F35" t="str">
-        <f>VLOOKUP(A35,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="F36" t="str">
-        <f>VLOOKUP(A36,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="F37" t="str">
-        <f>VLOOKUP(A37,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="F38" t="str">
-        <f>VLOOKUP(A38,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="F39" t="str">
-        <f>VLOOKUP(A39,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="F40" t="str">
-        <f>VLOOKUP(A40,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="F41" t="str">
-        <f>VLOOKUP(A41,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="F42" t="str">
-        <f>VLOOKUP(A42,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="F43" t="str">
-        <f>VLOOKUP(A43,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="F44" t="str">
-        <f>VLOOKUP(A44,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="F45" t="str">
-        <f>VLOOKUP(A45,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="F46" t="str">
-        <f>VLOOKUP(A46,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="F47" t="str">
-        <f>VLOOKUP(A47,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="F48" t="str">
-        <f>VLOOKUP(A48,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="F49" t="str">
-        <f>VLOOKUP(A49,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="F50" t="str">
-        <f>VLOOKUP(A50,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="F51" t="str">
-        <f>VLOOKUP(A51,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="F52" t="str">
-        <f>VLOOKUP(A52,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="F53" t="str">
-        <f>VLOOKUP(A53,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="F54" t="str">
-        <f>VLOOKUP(A54,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="F55" t="str">
-        <f>VLOOKUP(A55,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="F56" t="str">
-        <f>VLOOKUP(A56,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="F57" t="str">
-        <f>VLOOKUP(A57,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="F58" t="str">
-        <f>VLOOKUP(A58,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="F59" t="str">
-        <f>VLOOKUP(A59,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="F60" t="str">
-        <f>VLOOKUP(A60,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="F61" t="str">
-        <f>VLOOKUP(A61,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="F62" t="str">
-        <f>VLOOKUP(A62,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="F63" t="str">
-        <f>VLOOKUP(A63,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="F64" t="str">
-        <f>VLOOKUP(A64,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="F65" t="str">
-        <f>VLOOKUP(A65,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="F66" t="str">
-        <f>VLOOKUP(A66,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="F67" t="str">
-        <f>VLOOKUP(A67,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="F68" t="str">
-        <f>VLOOKUP(A68,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="F69" t="str">
-        <f>VLOOKUP(A69,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="F70" t="str">
-        <f>VLOOKUP(A70,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="F71" t="str">
-        <f>VLOOKUP(A71,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="F72" t="str">
-        <f>VLOOKUP(A72,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="F73" t="str">
-        <f>VLOOKUP(A73,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="F74" t="str">
-        <f>VLOOKUP(A74,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="F75" t="str">
-        <f>VLOOKUP(A75,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="F76" t="str">
-        <f>VLOOKUP(A76,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="F77" t="str">
-        <f>VLOOKUP(A77,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="F78" t="str">
-        <f>VLOOKUP(A78,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="F79" t="str">
-        <f>VLOOKUP(A79,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="F80" t="str">
-        <f>VLOOKUP(A80,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="F81" t="str">
-        <f>VLOOKUP(A81,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F82" t="str">
-        <f>VLOOKUP(A82,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="F83" t="str">
-        <f>VLOOKUP(A83,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="F84" t="str">
-        <f>VLOOKUP(A84,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="F85" t="str">
-        <f>VLOOKUP(A85,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="F86" t="str">
-        <f>VLOOKUP(A86,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="F87" t="str">
-        <f>VLOOKUP(A87,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="F88" t="str">
-        <f>VLOOKUP(A88,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="F89" t="str">
-        <f>VLOOKUP(A89,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="F90" t="str">
-        <f>VLOOKUP(A90,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="F91" t="str">
-        <f>VLOOKUP(A91,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="F92" t="str">
-        <f>VLOOKUP(A92,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="F93" t="str">
-        <f>VLOOKUP(A93,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="F94" t="str">
-        <f>VLOOKUP(A94,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="F95" t="str">
-        <f>VLOOKUP(A95,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="F96" t="str">
-        <f>VLOOKUP(A96,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="6" t="s">
+      <c r="B91" s="70">
+        <v>35</v>
+      </c>
+      <c r="C91" s="80" t="s">
+        <v>535</v>
+      </c>
+      <c r="D91" s="40" t="s">
+        <v>478</v>
+      </c>
+      <c r="E91" s="40" t="str">
+        <f>VLOOKUP(D91,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>UNCONSCIOUS PATIENT</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="41">
+        <v>93</v>
+      </c>
+      <c r="B92" s="70"/>
+      <c r="C92" s="80"/>
+      <c r="D92" s="40" t="s">
+        <v>481</v>
+      </c>
+      <c r="E92" s="40" t="str">
+        <f>VLOOKUP(D92,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>UNC PATIENT - FEVER &amp; COUGH</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="20">
+        <v>95</v>
+      </c>
+      <c r="B93" s="58">
+        <v>36</v>
+      </c>
+      <c r="D93" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="E93" s="21" t="str">
+        <f>VLOOKUP(D93,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>VENOM (SNAKE BITES)</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="53">
+        <v>68</v>
+      </c>
+      <c r="B94" s="65">
+        <v>37</v>
+      </c>
+      <c r="C94" s="86" t="s">
+        <v>537</v>
+      </c>
+      <c r="D94" s="52" t="s">
         <v>399</v>
       </c>
-      <c r="B97" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="F97" t="str">
-        <f>VLOOKUP(A97,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="F98" t="str">
-        <f>VLOOKUP(A98,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="F99" t="str">
-        <f>VLOOKUP(A99,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="F100" t="str">
-        <f>VLOOKUP(A100,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="F101" t="str">
-        <f>VLOOKUP(A101,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="F102" t="str">
-        <f>VLOOKUP(A102,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="F103" t="str">
-        <f>VLOOKUP(A103,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="F104" t="str">
-        <f>VLOOKUP(A104,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="F105" t="str">
-        <f>VLOOKUP(A105,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="F106" t="str">
-        <f>VLOOKUP(A106,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="F107" t="str">
-        <f>VLOOKUP(A107,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="F108" t="str">
-        <f>VLOOKUP(A108,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="F109" t="str">
-        <f>VLOOKUP(A109,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="F110" t="str">
-        <f>VLOOKUP(A110,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="F111" t="str">
-        <f>VLOOKUP(A111,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="F112" t="str">
-        <f>VLOOKUP(A112,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="F113" t="str">
-        <f>VLOOKUP(A113,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="F114" t="str">
-        <f>VLOOKUP(A114,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="F115" t="str">
-        <f>VLOOKUP(A115,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="F116" t="str">
-        <f>VLOOKUP(A116,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="F117" t="str">
-        <f>VLOOKUP(A117,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="F118" t="str">
-        <f>VLOOKUP(A118,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="F119" t="str">
-        <f>VLOOKUP(A119,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="F120" t="str">
-        <f>VLOOKUP(A120,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="F121" t="str">
-        <f>VLOOKUP(A121,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="F122" t="str">
-        <f>VLOOKUP(A122,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="F123" t="str">
-        <f>VLOOKUP(A123,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" s="6" t="s">
+      <c r="E94" s="52" t="str">
+        <f>VLOOKUP(D94,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>UNKNOWN CONDITION</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="53">
+        <v>94</v>
+      </c>
+      <c r="B95" s="65"/>
+      <c r="C95" s="86"/>
+      <c r="D95" s="52" t="s">
         <v>487</v>
       </c>
-      <c r="B124" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="F124" t="str">
-        <f>VLOOKUP(A124,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="F125" t="str">
-        <f>VLOOKUP(A125,Sheet3!$A:$B,2,FALSE)</f>
-        <v>Y</v>
+      <c r="E95" s="52" t="str">
+        <f>VLOOKUP(D95,'Call Type Descriptions'!$A$5:$B$272,2,FALSE)</f>
+        <v>CALLER HAS NO PT MEDICAL INFO</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:F125" xr:uid="{A26828E3-43F2-834C-9CED-83B936D2F34B}"/>
+  <dataConsolidate/>
+  <mergeCells count="48">
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="C38:C44"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B38:B44"/>
+    <mergeCell ref="B55:B63"/>
+    <mergeCell ref="C55:C63"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B72:B79"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="C72:C79"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE2B437C-5A61-3F44-841E-329D88593127}">
-  <dimension ref="A1:B136"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0919A740-15DF-C14B-99DA-60A3428BE9EA}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>500</v>
-      </c>
-      <c r="B1" t="s">
-        <v>515</v>
+      <c r="A1" s="61" t="s">
+        <v>542</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>276</v>
+      <c r="A2">
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>515</v>
+        <v>544</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>215</v>
+      <c r="A3">
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>515</v>
+        <v>545</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>119</v>
+      <c r="A4">
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>515</v>
+        <v>546</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>402</v>
+      <c r="A5">
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>515</v>
+        <v>547</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>376</v>
+      <c r="A6">
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>515</v>
+        <v>548</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>179</v>
+      <c r="A7">
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>515</v>
+        <v>549</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>281</v>
+      <c r="A8">
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>515</v>
+        <v>550</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>98</v>
+      <c r="A9">
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>515</v>
+        <v>551</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>501</v>
+      <c r="A10">
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>515</v>
+        <v>552</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>404</v>
+      <c r="A11">
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>515</v>
+        <v>553</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>155</v>
+      <c r="A12">
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>515</v>
+        <v>554</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>367</v>
+      <c r="A13">
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>515</v>
+        <v>555</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>445</v>
+      <c r="A14">
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>515</v>
+        <v>556</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>183</v>
+      <c r="A15">
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>515</v>
+        <v>557</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>378</v>
+      <c r="A16">
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>515</v>
+        <v>558</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>136</v>
+      <c r="A17">
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>515</v>
+        <v>559</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>414</v>
+      <c r="A18">
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>515</v>
+        <v>560</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>240</v>
+      <c r="A19">
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>515</v>
+        <v>561</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>100</v>
+      <c r="A20">
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>515</v>
+        <v>562</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>436</v>
+      <c r="A21">
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>515</v>
+        <v>563</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>148</v>
+      <c r="A22">
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>515</v>
+        <v>564</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>382</v>
+      <c r="A23">
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>515</v>
+        <v>565</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>163</v>
+      <c r="A24">
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>515</v>
+        <v>566</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>249</v>
+      <c r="A25">
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>515</v>
+        <v>567</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>502</v>
+      <c r="A26">
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>515</v>
+        <v>568</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>93</v>
+      <c r="A27">
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>515</v>
+        <v>569</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>481</v>
+      <c r="A28">
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>515</v>
+        <v>570</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>233</v>
+      <c r="A29">
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>515</v>
+        <v>571</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>102</v>
+      <c r="A30">
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>515</v>
+        <v>572</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>439</v>
+      <c r="A31">
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>515</v>
+        <v>573</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>211</v>
+      <c r="A32">
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>515</v>
+        <v>574</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>260</v>
+      <c r="A33">
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>515</v>
+        <v>575</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>384</v>
+      <c r="A34">
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>515</v>
+        <v>576</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>399</v>
+      <c r="A35">
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>515</v>
+        <v>577</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>388</v>
+      <c r="A36">
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>174</v>
-      </c>
-      <c r="B37" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>390</v>
-      </c>
-      <c r="B38" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>454</v>
-      </c>
-      <c r="B39" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>198</v>
-      </c>
-      <c r="B40" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>503</v>
-      </c>
-      <c r="B41" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>424</v>
-      </c>
-      <c r="B42" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>504</v>
-      </c>
-      <c r="B43" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>423</v>
-      </c>
-      <c r="B44" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>430</v>
-      </c>
-      <c r="B45" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>272</v>
-      </c>
-      <c r="B46" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>459</v>
-      </c>
-      <c r="B47" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>152</v>
-      </c>
-      <c r="B48" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>181</v>
-      </c>
-      <c r="B49" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>128</v>
-      </c>
-      <c r="B50" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>238</v>
-      </c>
-      <c r="B51" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>465</v>
-      </c>
-      <c r="B52" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>289</v>
-      </c>
-      <c r="B53" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>217</v>
-      </c>
-      <c r="B54" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>440</v>
-      </c>
-      <c r="B55" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>505</v>
-      </c>
-      <c r="B56" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>130</v>
-      </c>
-      <c r="B57" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>411</v>
-      </c>
-      <c r="B58" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>506</v>
-      </c>
-      <c r="B59" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>315</v>
-      </c>
-      <c r="B60" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>478</v>
-      </c>
-      <c r="B61" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>196</v>
-      </c>
-      <c r="B62" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>475</v>
-      </c>
-      <c r="B63" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>507</v>
-      </c>
-      <c r="B64" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>369</v>
-      </c>
-      <c r="B65" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>508</v>
-      </c>
-      <c r="B66" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>467</v>
-      </c>
-      <c r="B67" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>208</v>
-      </c>
-      <c r="B68" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>509</v>
-      </c>
-      <c r="B69" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>510</v>
-      </c>
-      <c r="B70" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>205</v>
-      </c>
-      <c r="B71" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>511</v>
-      </c>
-      <c r="B72" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>291</v>
-      </c>
-      <c r="B73" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>366</v>
-      </c>
-      <c r="B74" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>306</v>
-      </c>
-      <c r="B75" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>447</v>
-      </c>
-      <c r="B76" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>449</v>
-      </c>
-      <c r="B77" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>274</v>
-      </c>
-      <c r="B78" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>456</v>
-      </c>
-      <c r="B79" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>257</v>
-      </c>
-      <c r="B80" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>428</v>
-      </c>
-      <c r="B81" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>386</v>
-      </c>
-      <c r="B82" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>512</v>
-      </c>
-      <c r="B83" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>489</v>
-      </c>
-      <c r="B84" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>513</v>
-      </c>
-      <c r="B85" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>407</v>
-      </c>
-      <c r="B86" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>461</v>
-      </c>
-      <c r="B87" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>294</v>
-      </c>
-      <c r="B88" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>364</v>
-      </c>
-      <c r="B89" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>191</v>
-      </c>
-      <c r="B90" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>487</v>
-      </c>
-      <c r="B91" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>434</v>
-      </c>
-      <c r="B92" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>96</v>
-      </c>
-      <c r="B93" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>283</v>
-      </c>
-      <c r="B94" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>165</v>
-      </c>
-      <c r="B95" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>268</v>
-      </c>
-      <c r="B96" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>150</v>
-      </c>
-      <c r="B97" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>113</v>
-      </c>
-      <c r="B98" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>371</v>
-      </c>
-      <c r="B99" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>111</v>
-      </c>
-      <c r="B100" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>292</v>
-      </c>
-      <c r="B101" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>514</v>
-      </c>
-      <c r="B102" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>187</v>
-      </c>
-      <c r="B103" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>262</v>
-      </c>
-      <c r="B104" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>202</v>
-      </c>
-      <c r="B105" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>322</v>
-      </c>
-      <c r="B106" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>324</v>
-      </c>
-      <c r="B107" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>297</v>
-      </c>
-      <c r="B108" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>327</v>
-      </c>
-      <c r="B109" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>339</v>
-      </c>
-      <c r="B110" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>442</v>
-      </c>
-      <c r="B111" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>301</v>
-      </c>
-      <c r="B112" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>313</v>
-      </c>
-      <c r="B113" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>319</v>
-      </c>
-      <c r="B114" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>332</v>
-      </c>
-      <c r="B115" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>354</v>
-      </c>
-      <c r="B116" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>302</v>
-      </c>
-      <c r="B117" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>321</v>
-      </c>
-      <c r="B118" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>363</v>
-      </c>
-      <c r="B119" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>328</v>
-      </c>
-      <c r="B120" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>298</v>
-      </c>
-      <c r="B121" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>356</v>
-      </c>
-      <c r="B122" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>331</v>
-      </c>
-      <c r="B123" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>343</v>
-      </c>
-      <c r="B124" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>351</v>
-      </c>
-      <c r="B125" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>330</v>
-      </c>
-      <c r="B126" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>349</v>
-      </c>
-      <c r="B127" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>361</v>
-      </c>
-      <c r="B128" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>352</v>
-      </c>
-      <c r="B129" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>300</v>
-      </c>
-      <c r="B130" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>318</v>
-      </c>
-      <c r="B131" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>312</v>
-      </c>
-      <c r="B132" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>295</v>
-      </c>
-      <c r="B133" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>325</v>
-      </c>
-      <c r="B134" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>337</v>
-      </c>
-      <c r="B135" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>347</v>
-      </c>
-      <c r="B136" t="s">
-        <v>515</v>
+        <v>578</v>
       </c>
     </row>
   </sheetData>
-  <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>